--- a/biology/Microbiologie/Symbiobacteriaceae/Symbiobacteriaceae.xlsx
+++ b/biology/Microbiologie/Symbiobacteriaceae/Symbiobacteriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Symbiobacteriaceae est une famille contenant le genre de bactéries thermophiles à Gram-négatif Symbiobacterium dont la caractéristique principale est de ne croître qu'en co-culture avec d'autres bactéries. Cette famille fait partie de l'ordre Eubacteriales du phylum Bacillota.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille Symbiobacteriaceae a été décrite en 2014 à la suite de la description de trois nouvelles espèces de Symbiobacterium[2], les espèces S. turbinis, S. ostreiconchae et S. terraclitae. Ces espèces s'ajoutent à Symbiobacterium thermophilum décrite comme un nouveau taxon en 2000[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille Symbiobacteriaceae a été décrite en 2014 à la suite de la description de trois nouvelles espèces de Symbiobacterium, les espèces S. turbinis, S. ostreiconchae et S. terraclitae. Ces espèces s'ajoutent à Symbiobacterium thermophilum décrite comme un nouveau taxon en 2000.
 </t>
         </is>
       </c>
@@ -544,10 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie du nom du genre Symbiobacteriaceae est la suivante : Sym.bi’o.bac.te.ri.a’ce.ae. N.L. neut. n. Symbiobacterium, genre type de la famille; L. fem. pl. n. suff. -aceae, suffixe pour définir une famille; N.L. fem. pl. n. Symbiobacteriaceae, la famille des Symbiobacterium[4].
-Phylogénie
-Les Symbiobacteriaceae sont des bactéries à Gram négatif de l'ordre Eubacteriales incluses dans la classe Clostridia du phylum Bacillota[2].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom du genre Symbiobacteriaceae est la suivante : Sym.bi’o.bac.te.ri.a’ce.ae. N.L. neut. n. Symbiobacterium, genre type de la famille; L. fem. pl. n. suff. -aceae, suffixe pour définir une famille; N.L. fem. pl. n. Symbiobacteriaceae, la famille des Symbiobacterium.
 </t>
         </is>
       </c>
@@ -573,13 +590,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Symbiobacteriaceae sont des bactéries à Gram négatif de l'ordre Eubacteriales incluses dans la classe Clostridia du phylum Bacillota.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Symbiobacteriaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Symbiobacteriaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon LPSN  (28 janvier 2023)[5], la famille des Symbiobacteriaceae comprend au moins un genre publié de manière valide[2] :
-Symbiobacterium Ohno et al. 2000[2],[3]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon LPSN  (28 janvier 2023), la famille des Symbiobacteriaceae comprend au moins un genre publié de manière valide :
+Symbiobacterium Ohno et al. 2000,
 </t>
         </is>
       </c>
